--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.659746600513</v>
+        <v>898.7322571319681</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.437217290671</v>
+        <v>1229.685123476839</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.877595149295</v>
+        <v>1112.325701166119</v>
       </c>
       <c r="AD2" t="n">
-        <v>846659.746600513</v>
+        <v>898732.2571319682</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158437.217290671</v>
+        <v>1229685.123476839</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.838289670995467e-06</v>
+        <v>3.107719897767801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047877.595149295</v>
+        <v>1112325.701166119</v>
       </c>
     </row>
     <row r="3">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.3529204301233</v>
+        <v>344.8401755393033</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.0608487188213</v>
+        <v>471.8255414477215</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.4480238586561</v>
+        <v>426.7951739832568</v>
       </c>
       <c r="AD3" t="n">
-        <v>303352.9204301233</v>
+        <v>344840.1755393033</v>
       </c>
       <c r="AE3" t="n">
-        <v>415060.8487188213</v>
+        <v>471825.5414477215</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.392688246065437e-06</v>
+        <v>5.73550781227585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>375448.0238586561</v>
+        <v>426795.1739832568</v>
       </c>
     </row>
     <row r="4">
@@ -4939,28 +4939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.0454344085619</v>
+        <v>268.8744923262777</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.3867063498838</v>
+        <v>367.8859423062444</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.996115428186</v>
+        <v>332.7754243036985</v>
       </c>
       <c r="AD4" t="n">
-        <v>248045.4344085619</v>
+        <v>268874.4923262777</v>
       </c>
       <c r="AE4" t="n">
-        <v>339386.7063498838</v>
+        <v>367885.9423062444</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.945444341883373e-06</v>
+        <v>6.669969417913672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.13611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>306996.115428186</v>
+        <v>332775.4243036985</v>
       </c>
     </row>
     <row r="5">
@@ -5045,28 +5045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.5679420087441</v>
+        <v>246.7260537679145</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.9495684426331</v>
+        <v>337.5814715503851</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.7999955948744</v>
+        <v>305.363169704288</v>
       </c>
       <c r="AD5" t="n">
-        <v>215567.9420087441</v>
+        <v>246726.0537679145</v>
       </c>
       <c r="AE5" t="n">
-        <v>294949.5684426331</v>
+        <v>337581.4715503851</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.238088503459194e-06</v>
+        <v>7.164698892949161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.780555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>266799.9955948744</v>
+        <v>305363.169704288</v>
       </c>
     </row>
     <row r="6">
@@ -5151,28 +5151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.6583437274723</v>
+        <v>224.5726529912053</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.6543306598109</v>
+        <v>307.2702112686417</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.0599524355297</v>
+        <v>277.9447735617035</v>
       </c>
       <c r="AD6" t="n">
-        <v>203658.3437274723</v>
+        <v>224572.6529912053</v>
       </c>
       <c r="AE6" t="n">
-        <v>278654.3306598109</v>
+        <v>307270.2112686417</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.413733354175688e-06</v>
+        <v>7.461635227915626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.590277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>252059.9524355297</v>
+        <v>277944.7735617035</v>
       </c>
     </row>
     <row r="7">
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>195.0731369612472</v>
+        <v>215.816854024388</v>
       </c>
       <c r="AB7" t="n">
-        <v>266.9076720096762</v>
+        <v>295.29014084366</v>
       </c>
       <c r="AC7" t="n">
-        <v>241.4343784004211</v>
+        <v>267.1080642439438</v>
       </c>
       <c r="AD7" t="n">
-        <v>195073.1369612472</v>
+        <v>215816.854024388</v>
       </c>
       <c r="AE7" t="n">
-        <v>266907.6720096762</v>
+        <v>295290.14084366</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.546634067633102e-06</v>
+        <v>7.686310478043908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.456944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>241434.3784004211</v>
+        <v>267108.0642439438</v>
       </c>
     </row>
     <row r="8">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.7454533621418</v>
+        <v>210.4891704252826</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.6181002685717</v>
+        <v>288.0005691025556</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.8405131553072</v>
+        <v>260.51419899883</v>
       </c>
       <c r="AD8" t="n">
-        <v>189745.4533621418</v>
+        <v>210489.1704252826</v>
       </c>
       <c r="AE8" t="n">
-        <v>259618.1002685717</v>
+        <v>288000.5691025556</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.630371729021197e-06</v>
+        <v>7.82787314936513e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.376388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>234840.5131553072</v>
+        <v>260514.1989988299</v>
       </c>
     </row>
     <row r="9">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.5398948272652</v>
+        <v>206.283611890406</v>
       </c>
       <c r="AB9" t="n">
-        <v>253.8638695450083</v>
+        <v>282.2463383789923</v>
       </c>
       <c r="AC9" t="n">
-        <v>229.6354581358853</v>
+        <v>255.3091439794081</v>
       </c>
       <c r="AD9" t="n">
-        <v>185539.8948272652</v>
+        <v>206283.611890406</v>
       </c>
       <c r="AE9" t="n">
-        <v>253863.8695450083</v>
+        <v>282246.3383789923</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.691205535290947e-06</v>
+        <v>7.930715717206504e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.319444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>229635.4581358853</v>
+        <v>255309.1439794081</v>
       </c>
     </row>
     <row r="10">
@@ -5575,28 +5575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>181.7129388505002</v>
+        <v>202.456655913641</v>
       </c>
       <c r="AB10" t="n">
-        <v>248.6276595442191</v>
+        <v>277.010128378203</v>
       </c>
       <c r="AC10" t="n">
-        <v>224.8989846685029</v>
+        <v>250.5726705120256</v>
       </c>
       <c r="AD10" t="n">
-        <v>181712.9388505002</v>
+        <v>202456.655913641</v>
       </c>
       <c r="AE10" t="n">
-        <v>248627.6595442191</v>
+        <v>277010.128378203</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.744745120185426e-06</v>
+        <v>8.021227041901433e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>224898.9846685029</v>
+        <v>250572.6705120256</v>
       </c>
     </row>
     <row r="11">
@@ -5681,28 +5681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>177.5658210695032</v>
+        <v>198.309538132644</v>
       </c>
       <c r="AB11" t="n">
-        <v>242.9533900383379</v>
+        <v>271.3358588723218</v>
       </c>
       <c r="AC11" t="n">
-        <v>219.7662594803739</v>
+        <v>245.4399453238966</v>
       </c>
       <c r="AD11" t="n">
-        <v>177565.8210695032</v>
+        <v>198309.538132644</v>
       </c>
       <c r="AE11" t="n">
-        <v>242953.3900383379</v>
+        <v>271335.8588723218</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.79974354935496e-06</v>
+        <v>8.114204615225651e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.220833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>219766.2594803739</v>
+        <v>245439.9453238966</v>
       </c>
     </row>
     <row r="12">
@@ -5787,28 +5787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>175.0831878866298</v>
+        <v>195.8269049497706</v>
       </c>
       <c r="AB12" t="n">
-        <v>239.556541791486</v>
+        <v>267.93901062547</v>
       </c>
       <c r="AC12" t="n">
-        <v>216.693601662694</v>
+        <v>242.3672875062167</v>
       </c>
       <c r="AD12" t="n">
-        <v>175083.1878866297</v>
+        <v>195826.9049497705</v>
       </c>
       <c r="AE12" t="n">
-        <v>239556.541791486</v>
+        <v>267939.01062547</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.823668595465844e-06</v>
+        <v>8.154651092746001e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>216693.601662694</v>
+        <v>242367.2875062167</v>
       </c>
     </row>
     <row r="13">
@@ -5893,28 +5893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>171.6993785747849</v>
+        <v>192.4430956379257</v>
       </c>
       <c r="AB13" t="n">
-        <v>234.9266646078912</v>
+        <v>263.3091334418752</v>
       </c>
       <c r="AC13" t="n">
-        <v>212.5055934594266</v>
+        <v>238.1792793029493</v>
       </c>
       <c r="AD13" t="n">
-        <v>171699.3785747849</v>
+        <v>192443.0956379257</v>
       </c>
       <c r="AE13" t="n">
-        <v>234926.6646078912</v>
+        <v>263309.1334418752</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.868017461427483e-06</v>
+        <v>8.229625051076402e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.1625</v>
       </c>
       <c r="AH13" t="n">
-        <v>212505.5934594266</v>
+        <v>238179.2793029493</v>
       </c>
     </row>
     <row r="14">
@@ -5999,28 +5999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>169.7205673375875</v>
+        <v>190.4642844007282</v>
       </c>
       <c r="AB14" t="n">
-        <v>232.2191677741685</v>
+        <v>260.6016366081524</v>
       </c>
       <c r="AC14" t="n">
-        <v>210.0564963235179</v>
+        <v>235.7301821670406</v>
       </c>
       <c r="AD14" t="n">
-        <v>169720.5673375874</v>
+        <v>190464.2844007282</v>
       </c>
       <c r="AE14" t="n">
-        <v>232219.1677741685</v>
+        <v>260601.6366081524</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.879250562345399e-06</v>
+        <v>8.248615165521932e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.152777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>210056.4963235179</v>
+        <v>235730.1821670406</v>
       </c>
     </row>
     <row r="15">
@@ -6105,28 +6105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>167.1250650959746</v>
+        <v>187.8687821591154</v>
       </c>
       <c r="AB15" t="n">
-        <v>228.6678871017181</v>
+        <v>257.050355935702</v>
       </c>
       <c r="AC15" t="n">
-        <v>206.8441448941912</v>
+        <v>232.517830737714</v>
       </c>
       <c r="AD15" t="n">
-        <v>167125.0650959746</v>
+        <v>187868.7821591154</v>
       </c>
       <c r="AE15" t="n">
-        <v>228667.8871017181</v>
+        <v>257050.355935702</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.907989794563962e-06</v>
+        <v>8.297200263518937e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.127777777777777</v>
       </c>
       <c r="AH15" t="n">
-        <v>206844.1448941912</v>
+        <v>232517.830737714</v>
       </c>
     </row>
     <row r="16">
@@ -6211,28 +6211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>165.5987750118485</v>
+        <v>186.3424920749893</v>
       </c>
       <c r="AB16" t="n">
-        <v>226.5795496734515</v>
+        <v>254.9620185074355</v>
       </c>
       <c r="AC16" t="n">
-        <v>204.9551154590778</v>
+        <v>230.6288013026005</v>
       </c>
       <c r="AD16" t="n">
-        <v>165598.7750118485</v>
+        <v>186342.4920749892</v>
       </c>
       <c r="AE16" t="n">
-        <v>226579.5496734515</v>
+        <v>254962.0185074355</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.918201704489339e-06</v>
+        <v>8.314464003923964e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.119444444444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>204955.1154590778</v>
+        <v>230628.8013026005</v>
       </c>
     </row>
     <row r="17">
@@ -6317,28 +6317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>164.1584958355023</v>
+        <v>184.9022128986431</v>
       </c>
       <c r="AB17" t="n">
-        <v>224.6088961637429</v>
+        <v>252.9913649977268</v>
       </c>
       <c r="AC17" t="n">
-        <v>203.1725383545055</v>
+        <v>228.8462241980283</v>
       </c>
       <c r="AD17" t="n">
-        <v>164158.4958355023</v>
+        <v>184902.212898643</v>
       </c>
       <c r="AE17" t="n">
-        <v>224608.8961637429</v>
+        <v>252991.3649977268</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.933957222659921e-06</v>
+        <v>8.341099489120291e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.106944444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>203172.5383545055</v>
+        <v>228846.2241980283</v>
       </c>
     </row>
     <row r="18">
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>164.7475562892449</v>
+        <v>185.4912733523857</v>
       </c>
       <c r="AB18" t="n">
-        <v>225.4148746640663</v>
+        <v>253.7973434980502</v>
       </c>
       <c r="AC18" t="n">
-        <v>203.9015953979563</v>
+        <v>229.575281241479</v>
       </c>
       <c r="AD18" t="n">
-        <v>164747.5562892449</v>
+        <v>185491.2733523857</v>
       </c>
       <c r="AE18" t="n">
-        <v>225414.8746640663</v>
+        <v>253797.3434980502</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.931914840674846e-06</v>
+        <v>8.337646741039285e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.108333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>203901.5953979563</v>
+        <v>229575.281241479</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.7056344146675</v>
+        <v>573.0731327793966</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.1889091512361</v>
+        <v>784.1039424710611</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.9322834357796</v>
+        <v>709.2701626984173</v>
       </c>
       <c r="AD2" t="n">
-        <v>522705.6344146676</v>
+        <v>573073.1327793966</v>
       </c>
       <c r="AE2" t="n">
-        <v>715188.9091512361</v>
+        <v>784103.9424710611</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.407855194408107e-06</v>
+        <v>4.169901972997418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.704166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>646932.2834357796</v>
+        <v>709270.1626984173</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.0394336538773</v>
+        <v>278.1405449848686</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.3784958525897</v>
+        <v>380.5641643431208</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.9886885292302</v>
+        <v>344.2436546233719</v>
       </c>
       <c r="AD3" t="n">
-        <v>248039.4336538773</v>
+        <v>278140.5449848686</v>
       </c>
       <c r="AE3" t="n">
-        <v>339378.4958525897</v>
+        <v>380564.1643431208</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.829478254973721e-06</v>
+        <v>6.631856005315544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.473611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>306988.6885292302</v>
+        <v>344243.6546233719</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.8595619201458</v>
+        <v>231.0459245971542</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.8249139174898</v>
+        <v>316.1272270604845</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.5960098524743</v>
+        <v>285.9564881972755</v>
       </c>
       <c r="AD4" t="n">
-        <v>200859.5619201458</v>
+        <v>231045.9245971542</v>
       </c>
       <c r="AE4" t="n">
-        <v>274824.9139174898</v>
+        <v>316127.2270604845</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.327951818566951e-06</v>
+        <v>7.495108040214351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.843055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>248596.0098524744</v>
+        <v>285956.4881972754</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.8202035553964</v>
+        <v>205.086680097688</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.8791561962999</v>
+        <v>280.6086434952924</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.7447244471234</v>
+        <v>253.8277483968888</v>
       </c>
       <c r="AD5" t="n">
-        <v>184820.2035553964</v>
+        <v>205086.680097688</v>
       </c>
       <c r="AE5" t="n">
-        <v>252879.1561962999</v>
+        <v>280608.6434952924</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.591450105588985e-06</v>
+        <v>7.951432004166308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.565277777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>228744.7244471234</v>
+        <v>253827.7483968888</v>
       </c>
     </row>
     <row r="6">
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.9301215844689</v>
+        <v>196.0260059261683</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.7153538409467</v>
+        <v>268.2114293650924</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.7418183165574</v>
+        <v>242.6137069836718</v>
       </c>
       <c r="AD6" t="n">
-        <v>175930.1215844689</v>
+        <v>196026.0059261683</v>
       </c>
       <c r="AE6" t="n">
-        <v>240715.3538409467</v>
+        <v>268211.4293650924</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.746289305179252e-06</v>
+        <v>8.219581137622615e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>217741.8183165574</v>
+        <v>242613.7069836718</v>
       </c>
     </row>
     <row r="7">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.4071812683388</v>
+        <v>189.5030656100382</v>
       </c>
       <c r="AB7" t="n">
-        <v>231.7903791286052</v>
+        <v>259.2864546527509</v>
       </c>
       <c r="AC7" t="n">
-        <v>209.6686306644783</v>
+        <v>234.5405193315927</v>
       </c>
       <c r="AD7" t="n">
-        <v>169407.1812683388</v>
+        <v>189503.0656100382</v>
       </c>
       <c r="AE7" t="n">
-        <v>231790.3791286052</v>
+        <v>259286.4546527509</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.856155715804705e-06</v>
+        <v>8.409846799568217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.316666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>209668.6306644783</v>
+        <v>234540.5193315927</v>
       </c>
     </row>
     <row r="8">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.4837395283782</v>
+        <v>184.5796238700776</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.0539089330746</v>
+        <v>252.5499844572203</v>
       </c>
       <c r="AC8" t="n">
-        <v>203.5750797297117</v>
+        <v>228.446968396826</v>
       </c>
       <c r="AD8" t="n">
-        <v>164483.7395283782</v>
+        <v>184579.6238700776</v>
       </c>
       <c r="AE8" t="n">
-        <v>225053.9089330746</v>
+        <v>252549.9844572203</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.932217077006942e-06</v>
+        <v>8.541569180915175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>203575.0797297117</v>
+        <v>228446.968396826</v>
       </c>
     </row>
     <row r="9">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.2062825702842</v>
+        <v>180.3021669119836</v>
       </c>
       <c r="AB9" t="n">
-        <v>219.2013036149307</v>
+        <v>246.6973791390764</v>
       </c>
       <c r="AC9" t="n">
-        <v>198.2810388489464</v>
+        <v>223.1529275160608</v>
       </c>
       <c r="AD9" t="n">
-        <v>160206.2825702842</v>
+        <v>180302.1669119837</v>
       </c>
       <c r="AE9" t="n">
-        <v>219201.3036149307</v>
+        <v>246697.3791390764</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.995752460074682e-06</v>
+        <v>8.651599185968883e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>198281.0388489464</v>
+        <v>223152.9275160608</v>
       </c>
     </row>
     <row r="10">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.0792791646192</v>
+        <v>176.1751635063187</v>
       </c>
       <c r="AB10" t="n">
-        <v>213.5545554847623</v>
+        <v>241.050631008908</v>
       </c>
       <c r="AC10" t="n">
-        <v>193.1732084350587</v>
+        <v>218.0450971021731</v>
       </c>
       <c r="AD10" t="n">
-        <v>156079.2791646192</v>
+        <v>176175.1635063186</v>
       </c>
       <c r="AE10" t="n">
-        <v>213554.5554847623</v>
+        <v>241050.631008908</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.047667357403194e-06</v>
+        <v>8.741504938316807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.152777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>193173.2084350587</v>
+        <v>218045.0971021731</v>
       </c>
     </row>
     <row r="11">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>152.975296772961</v>
+        <v>173.0711811146604</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.3075498384591</v>
+        <v>236.8036253626048</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.3315310469275</v>
+        <v>214.2034197140419</v>
       </c>
       <c r="AD11" t="n">
-        <v>152975.296772961</v>
+        <v>173071.1811146604</v>
       </c>
       <c r="AE11" t="n">
-        <v>209307.5498384591</v>
+        <v>236803.6253626048</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.074077552265082e-06</v>
+        <v>8.7872418762845e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.130555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>189331.5310469275</v>
+        <v>214203.4197140419</v>
       </c>
     </row>
     <row r="12">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>150.6019684614735</v>
+        <v>170.697852803173</v>
       </c>
       <c r="AB12" t="n">
-        <v>206.0602573388282</v>
+        <v>233.5563328629738</v>
       </c>
       <c r="AC12" t="n">
-        <v>186.3941555858567</v>
+        <v>211.266044252971</v>
       </c>
       <c r="AD12" t="n">
-        <v>150601.9684614736</v>
+        <v>170697.852803173</v>
       </c>
       <c r="AE12" t="n">
-        <v>206060.2573388282</v>
+        <v>233556.3328629738</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.100336831727758e-06</v>
+        <v>8.832717460320949e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.109722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>186394.1555858567</v>
+        <v>211266.044252971</v>
       </c>
     </row>
     <row r="13">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>150.1600212950048</v>
+        <v>170.2559056367042</v>
       </c>
       <c r="AB13" t="n">
-        <v>205.4555657283329</v>
+        <v>232.9516412524787</v>
       </c>
       <c r="AC13" t="n">
-        <v>185.8471748939769</v>
+        <v>210.7190635610912</v>
       </c>
       <c r="AD13" t="n">
-        <v>150160.0212950048</v>
+        <v>170255.9056367042</v>
       </c>
       <c r="AE13" t="n">
-        <v>205455.5657283329</v>
+        <v>232951.6412524786</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.115881117846469e-06</v>
+        <v>8.859636915239077e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>185847.1748939769</v>
+        <v>210719.0635610913</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.9303402019963</v>
+        <v>218.276437040142</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.2393147163779</v>
+        <v>298.6554508349574</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.307001171604</v>
+        <v>270.1521937729151</v>
       </c>
       <c r="AD2" t="n">
-        <v>190930.3402019963</v>
+        <v>218276.437040142</v>
       </c>
       <c r="AE2" t="n">
-        <v>261239.3147163779</v>
+        <v>298655.4508349574</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.173615699235909e-06</v>
+        <v>7.89737902214615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236307.001171604</v>
+        <v>270152.1937729151</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.025488516186</v>
+        <v>152.3415605961881</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.3795861750146</v>
+        <v>208.4404440429319</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.8780958453883</v>
+        <v>188.5471806115345</v>
       </c>
       <c r="AD3" t="n">
-        <v>134025.488516186</v>
+        <v>152341.5605961881</v>
       </c>
       <c r="AE3" t="n">
-        <v>183379.5861750146</v>
+        <v>208440.4440429319</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.168688938696246e-06</v>
+        <v>9.780271720736434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.524999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>165878.0958453883</v>
+        <v>188547.1806115345</v>
       </c>
     </row>
     <row r="4">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.0293818002372</v>
+        <v>138.1748616796471</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.2294955016133</v>
+        <v>189.0569415946838</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.5556629485293</v>
+        <v>171.0136124320245</v>
       </c>
       <c r="AD4" t="n">
-        <v>120029.3818002372</v>
+        <v>138174.8616796471</v>
       </c>
       <c r="AE4" t="n">
-        <v>164229.4955016133</v>
+        <v>189056.9415946838</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.516265714165215e-06</v>
+        <v>1.043796177487256e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.240277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>148555.6629485294</v>
+        <v>171013.6124320245</v>
       </c>
     </row>
     <row r="5">
@@ -8501,28 +8501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.9952228837595</v>
+        <v>136.1407027631694</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.4462695313321</v>
+        <v>186.2737156244025</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.0380641585686</v>
+        <v>168.4960136420638</v>
       </c>
       <c r="AD5" t="n">
-        <v>117995.2228837595</v>
+        <v>136140.7027631694</v>
       </c>
       <c r="AE5" t="n">
-        <v>161446.2695313321</v>
+        <v>186273.7156244025</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.569816787129911e-06</v>
+        <v>1.053929192856213e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.198611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>146038.0641585686</v>
+        <v>168496.0136420638</v>
       </c>
     </row>
   </sheetData>
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.1375856983227</v>
+        <v>302.5422266892195</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.0871388491686</v>
+        <v>413.9516217772331</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.289348755509</v>
+        <v>374.4446599795633</v>
       </c>
       <c r="AD2" t="n">
-        <v>274137.5856983226</v>
+        <v>302542.2266892195</v>
       </c>
       <c r="AE2" t="n">
-        <v>375087.1388491686</v>
+        <v>413951.6217772331</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.465315938590989e-06</v>
+        <v>6.313053060885933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.456944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>339289.348755509</v>
+        <v>374444.6599795633</v>
       </c>
     </row>
     <row r="3">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.5783509634074</v>
+        <v>195.9829024457528</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.2880928231005</v>
+        <v>268.1524532815965</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.4051590519893</v>
+        <v>242.5603594948114</v>
       </c>
       <c r="AD3" t="n">
-        <v>167578.3509634074</v>
+        <v>195982.9024457528</v>
       </c>
       <c r="AE3" t="n">
-        <v>229288.0928231005</v>
+        <v>268152.4532815965</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.636853711972379e-06</v>
+        <v>8.447340455528543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>207405.1590519893</v>
+        <v>242560.3594948114</v>
       </c>
     </row>
     <row r="4">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.3377541494658</v>
+        <v>167.2457643613899</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.9622594270551</v>
+        <v>228.833033161535</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.5918262467149</v>
+        <v>206.9935296458432</v>
       </c>
       <c r="AD4" t="n">
-        <v>148337.7541494658</v>
+        <v>167245.7643613899</v>
       </c>
       <c r="AE4" t="n">
-        <v>202962.2594270551</v>
+        <v>228833.033161535</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039126789548468e-06</v>
+        <v>9.180194639305026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.440277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>183591.8262467149</v>
+        <v>206993.5296458432</v>
       </c>
     </row>
     <row r="5">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.3031820611531</v>
+        <v>157.2111922730772</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.2325152017558</v>
+        <v>215.1032889362357</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.1724295404567</v>
+        <v>194.5741329395851</v>
       </c>
       <c r="AD5" t="n">
-        <v>138303.1820611531</v>
+        <v>157211.1922730771</v>
       </c>
       <c r="AE5" t="n">
-        <v>189232.5152017558</v>
+        <v>215103.2889362357</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.251782160954332e-06</v>
+        <v>9.567606542622992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.261111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>171172.4295404567</v>
+        <v>194574.1329395851</v>
       </c>
     </row>
     <row r="6">
@@ -9222,28 +9222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.9062817119966</v>
+        <v>150.8142919239206</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.4799939327183</v>
+        <v>206.3507676671982</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.2552366170926</v>
+        <v>186.656940016221</v>
       </c>
       <c r="AD6" t="n">
-        <v>131906.2817119966</v>
+        <v>150814.2919239207</v>
       </c>
       <c r="AE6" t="n">
-        <v>180479.9939327183</v>
+        <v>206350.7676671982</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.369225922889842e-06</v>
+        <v>9.781563571046323e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>163255.2366170926</v>
+        <v>186656.940016221</v>
       </c>
     </row>
     <row r="7">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.3158164446722</v>
+        <v>148.2238266565963</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.935605070705</v>
+        <v>202.8063788051849</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.0491192534878</v>
+        <v>183.4508226526161</v>
       </c>
       <c r="AD7" t="n">
-        <v>129315.8164446722</v>
+        <v>148223.8266565963</v>
       </c>
       <c r="AE7" t="n">
-        <v>176935.605070705</v>
+        <v>202806.3788051849</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.41884550955121e-06</v>
+        <v>9.871959681820513e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.129166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>160049.1192534878</v>
+        <v>183450.8226526161</v>
       </c>
     </row>
   </sheetData>
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8941218940851</v>
+        <v>165.4995113367706</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.3552622035698</v>
+        <v>226.4437327340057</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.0427599863128</v>
+        <v>204.8322606977124</v>
       </c>
       <c r="AD2" t="n">
-        <v>147894.1218940851</v>
+        <v>165499.5113367706</v>
       </c>
       <c r="AE2" t="n">
-        <v>202355.2622035698</v>
+        <v>226443.7327340058</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794455701715354e-06</v>
+        <v>9.39558839949278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>183042.7599863128</v>
+        <v>204832.2606977124</v>
       </c>
     </row>
     <row r="3">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.4387200901863</v>
+        <v>126.9587686783001</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.7388849229094</v>
+        <v>173.7105883311478</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.4480159057527</v>
+        <v>157.1318935852134</v>
       </c>
       <c r="AD3" t="n">
-        <v>109438.7200901863</v>
+        <v>126958.7686783001</v>
       </c>
       <c r="AE3" t="n">
-        <v>149738.8849229095</v>
+        <v>173710.5883311478</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.628890026775871e-06</v>
+        <v>1.103081082148162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.315277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>135448.0159057527</v>
+        <v>157131.8935852134</v>
       </c>
     </row>
     <row r="4">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.1286037220997</v>
+        <v>126.6486523102135</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.3145700267251</v>
+        <v>173.2862734349634</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.0641970277303</v>
+        <v>156.7480747071911</v>
       </c>
       <c r="AD4" t="n">
-        <v>109128.6037220997</v>
+        <v>126648.6523102136</v>
       </c>
       <c r="AE4" t="n">
-        <v>149314.5700267251</v>
+        <v>173286.2734349634</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.657398262991521e-06</v>
+        <v>1.108667777909725e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.293055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>135064.1970277303</v>
+        <v>156748.0747071911</v>
       </c>
     </row>
   </sheetData>
@@ -10134,28 +10134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>592.1160333805959</v>
+        <v>632.8189488492112</v>
       </c>
       <c r="AB2" t="n">
-        <v>810.1592791871043</v>
+        <v>865.8508038171612</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.8388146471763</v>
+        <v>783.2152183300863</v>
       </c>
       <c r="AD2" t="n">
-        <v>592116.033380596</v>
+        <v>632818.9488492112</v>
       </c>
       <c r="AE2" t="n">
-        <v>810159.2791871043</v>
+        <v>865850.8038171612</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.25386523670744e-06</v>
+        <v>3.877732783517825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.216666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>732838.8146471763</v>
+        <v>783215.2183300862</v>
       </c>
     </row>
     <row r="3">
@@ -10240,28 +10240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.2354663873754</v>
+        <v>291.7625858574237</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.4338900065988</v>
+        <v>399.2024416269802</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.3209012059836</v>
+        <v>361.1031208822462</v>
       </c>
       <c r="AD3" t="n">
-        <v>261235.4663873754</v>
+        <v>291762.5858574237</v>
       </c>
       <c r="AE3" t="n">
-        <v>357433.8900065988</v>
+        <v>399202.4416269802</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.712970030955469e-06</v>
+        <v>6.388095161487296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.594444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>323320.9012059836</v>
+        <v>361103.1208822462</v>
       </c>
     </row>
     <row r="4">
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.5432575151764</v>
+        <v>239.9850361306526</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.7063293282166</v>
+        <v>328.3581138263788</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.3434796520764</v>
+        <v>297.020076296394</v>
       </c>
       <c r="AD4" t="n">
-        <v>209543.2575151764</v>
+        <v>239985.0361306526</v>
       </c>
       <c r="AE4" t="n">
-        <v>286706.3293282166</v>
+        <v>328358.1138263788</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.231044959950464e-06</v>
+        <v>7.279433340790928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.909722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>259343.4796520764</v>
+        <v>297020.076296394</v>
       </c>
     </row>
     <row r="5">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.482055355602</v>
+        <v>222.9238339710782</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.3624398463813</v>
+        <v>305.0142243445435</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.2274982190254</v>
+        <v>275.9040948633431</v>
       </c>
       <c r="AD5" t="n">
-        <v>192482.055355602</v>
+        <v>222923.8339710782</v>
       </c>
       <c r="AE5" t="n">
-        <v>263362.4398463813</v>
+        <v>305014.2243445435</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.495466574980242e-06</v>
+        <v>7.734365760250748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.620833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>238227.4982190254</v>
+        <v>275904.0948633431</v>
       </c>
     </row>
     <row r="6">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.2718564097282</v>
+        <v>202.5380180437395</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.3923952064569</v>
+        <v>277.1214516340476</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.5907350324502</v>
+        <v>250.6733692325756</v>
       </c>
       <c r="AD6" t="n">
-        <v>182271.8564097282</v>
+        <v>202538.0180437395</v>
       </c>
       <c r="AE6" t="n">
-        <v>249392.3952064569</v>
+        <v>277121.4516340476</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.666263794643142e-06</v>
+        <v>8.028219166938033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.451388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>225590.7350324502</v>
+        <v>250673.3692325756</v>
       </c>
     </row>
     <row r="7">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.9966890399246</v>
+        <v>196.262850673936</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.8064343702501</v>
+        <v>268.5354907978407</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.8242062479765</v>
+        <v>242.9068404481018</v>
       </c>
       <c r="AD7" t="n">
-        <v>175996.6890399246</v>
+        <v>196262.850673936</v>
       </c>
       <c r="AE7" t="n">
-        <v>240806.4343702501</v>
+        <v>268535.4907978408</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.771703409233636e-06</v>
+        <v>8.209626042344806e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.352777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>217824.2062479765</v>
+        <v>242906.8404481018</v>
       </c>
     </row>
     <row r="8">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>170.2294228190334</v>
+        <v>190.4955844530447</v>
       </c>
       <c r="AB8" t="n">
-        <v>232.915406293002</v>
+        <v>260.6444627205927</v>
       </c>
       <c r="AC8" t="n">
-        <v>210.6862868152909</v>
+        <v>235.7689210154163</v>
       </c>
       <c r="AD8" t="n">
-        <v>170229.4228190334</v>
+        <v>190495.5844530447</v>
       </c>
       <c r="AE8" t="n">
-        <v>232915.406293002</v>
+        <v>260644.4627205927</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.862635729334374e-06</v>
+        <v>8.366073390213341e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.272222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>210686.286815291</v>
+        <v>235768.9210154163</v>
       </c>
     </row>
     <row r="9">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>166.7539808408499</v>
+        <v>187.0201424748612</v>
       </c>
       <c r="AB9" t="n">
-        <v>228.1601532527749</v>
+        <v>255.8892096803655</v>
       </c>
       <c r="AC9" t="n">
-        <v>206.384868451182</v>
+        <v>231.4675026513074</v>
       </c>
       <c r="AD9" t="n">
-        <v>166753.9808408499</v>
+        <v>187020.1424748612</v>
       </c>
       <c r="AE9" t="n">
-        <v>228160.1532527749</v>
+        <v>255889.2096803655</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.910644404913875e-06</v>
+        <v>8.448671414334723e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.230555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>206384.868451182</v>
+        <v>231467.5026513074</v>
       </c>
     </row>
     <row r="10">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.8198719461442</v>
+        <v>183.0860335801555</v>
       </c>
       <c r="AB10" t="n">
-        <v>222.777331902406</v>
+        <v>250.5063883299968</v>
       </c>
       <c r="AC10" t="n">
-        <v>201.5157760156535</v>
+        <v>226.5984102157789</v>
       </c>
       <c r="AD10" t="n">
-        <v>162819.8719461442</v>
+        <v>183086.0335801555</v>
       </c>
       <c r="AE10" t="n">
-        <v>222777.331902406</v>
+        <v>250506.3883299968</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.962392073918572e-06</v>
+        <v>8.537702306378331e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.186111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>201515.7760156535</v>
+        <v>226598.4102157789</v>
       </c>
     </row>
     <row r="11">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>159.5913329758246</v>
+        <v>179.8574946098359</v>
       </c>
       <c r="AB11" t="n">
-        <v>218.3599024501301</v>
+        <v>246.0889588777208</v>
       </c>
       <c r="AC11" t="n">
-        <v>197.5199398304002</v>
+        <v>222.6025740305255</v>
       </c>
       <c r="AD11" t="n">
-        <v>159591.3329758246</v>
+        <v>179857.4946098359</v>
       </c>
       <c r="AE11" t="n">
-        <v>218359.9024501301</v>
+        <v>246088.9588777208</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.002474083436661e-06</v>
+        <v>8.606662650504594e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.152777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>197519.9398304002</v>
+        <v>222602.5740305255</v>
       </c>
     </row>
     <row r="12">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>155.6560701336438</v>
+        <v>175.9222317676551</v>
       </c>
       <c r="AB12" t="n">
-        <v>212.9755022179172</v>
+        <v>240.7045586455079</v>
       </c>
       <c r="AC12" t="n">
-        <v>192.6494191992948</v>
+        <v>217.7320533994202</v>
       </c>
       <c r="AD12" t="n">
-        <v>155656.0701336438</v>
+        <v>175922.2317676551</v>
       </c>
       <c r="AE12" t="n">
-        <v>212975.5022179172</v>
+        <v>240704.5586455079</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.045995966905928e-06</v>
+        <v>8.681541233119305e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>192649.4191992948</v>
+        <v>217732.0533994202</v>
       </c>
     </row>
     <row r="13">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.3433462677085</v>
+        <v>174.6095079017199</v>
       </c>
       <c r="AB13" t="n">
-        <v>211.1793755112559</v>
+        <v>238.9084319388466</v>
       </c>
       <c r="AC13" t="n">
-        <v>191.024712304637</v>
+        <v>216.1073465047623</v>
       </c>
       <c r="AD13" t="n">
-        <v>154343.3462677085</v>
+        <v>174609.5079017199</v>
       </c>
       <c r="AE13" t="n">
-        <v>211179.3755112559</v>
+        <v>238908.4319388466</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.052875714808286e-06</v>
+        <v>8.6933777100962e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>191024.712304637</v>
+        <v>216107.3465047624</v>
       </c>
     </row>
     <row r="14">
@@ -11406,28 +11406,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>153.3472220007801</v>
+        <v>173.6133836347913</v>
       </c>
       <c r="AB14" t="n">
-        <v>209.8164343433439</v>
+        <v>237.5454907709345</v>
       </c>
       <c r="AC14" t="n">
-        <v>189.7918483288901</v>
+        <v>214.8744825290155</v>
       </c>
       <c r="AD14" t="n">
-        <v>153347.22200078</v>
+        <v>173613.3836347914</v>
       </c>
       <c r="AE14" t="n">
-        <v>209816.4343433439</v>
+        <v>237545.4907709346</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.073514958515362e-06</v>
+        <v>8.728887141026888e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.094444444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>189791.8483288901</v>
+        <v>214874.4825290155</v>
       </c>
     </row>
   </sheetData>
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.969806601911</v>
+        <v>143.7368921961028</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.4114938532197</v>
+        <v>196.667157126763</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0066074223674</v>
+        <v>177.8975196747291</v>
       </c>
       <c r="AD2" t="n">
-        <v>117969.806601911</v>
+        <v>143736.8921961028</v>
       </c>
       <c r="AE2" t="n">
-        <v>161411.4938532197</v>
+        <v>196667.157126763</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.188999542922674e-06</v>
+        <v>1.040218177792441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.790277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>146006.6074223673</v>
+        <v>177897.5196747291</v>
       </c>
     </row>
     <row r="3">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.888127717129</v>
+        <v>121.0378273369507</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.1443195632431</v>
+        <v>165.6092951744212</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.5782652049711</v>
+        <v>149.8037764771259</v>
       </c>
       <c r="AD3" t="n">
-        <v>103888.127717129</v>
+        <v>121037.8273369507</v>
       </c>
       <c r="AE3" t="n">
-        <v>142144.3195632431</v>
+        <v>165609.2951744212</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.66331394355546e-06</v>
+        <v>1.135302106292664e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>128578.2652049711</v>
+        <v>149803.7764771259</v>
       </c>
     </row>
   </sheetData>
@@ -12106,28 +12106,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.920051056257</v>
+        <v>420.0064658329246</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.1916188617865</v>
+        <v>574.6713759301431</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.4498222546482</v>
+        <v>519.8255463677112</v>
       </c>
       <c r="AD2" t="n">
-        <v>380920.051056257</v>
+        <v>420006.4658329246</v>
       </c>
       <c r="AE2" t="n">
-        <v>521191.6188617865</v>
+        <v>574671.3759301431</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.888530776302903e-06</v>
+        <v>5.115802642599612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.476388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>471449.8222546481</v>
+        <v>519825.5463677113</v>
       </c>
     </row>
     <row r="3">
@@ -12212,28 +12212,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.2487598648501</v>
+        <v>230.8773528620308</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.0398728844924</v>
+        <v>315.8965797756287</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.454313086491</v>
+        <v>285.7478535655707</v>
       </c>
       <c r="AD3" t="n">
-        <v>211248.7598648501</v>
+        <v>230877.3528620308</v>
       </c>
       <c r="AE3" t="n">
-        <v>289039.8728844923</v>
+        <v>315896.5797756287</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.206460843587362e-06</v>
+        <v>7.449954723057936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>261454.313086491</v>
+        <v>285747.8535655707</v>
       </c>
     </row>
     <row r="4">
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.9401384709755</v>
+        <v>204.2975528493483</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.3608152700931</v>
+        <v>279.5289247802774</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.5165550057989</v>
+        <v>252.8510765206397</v>
       </c>
       <c r="AD4" t="n">
-        <v>174940.1384709754</v>
+        <v>204297.5528493483</v>
       </c>
       <c r="AE4" t="n">
-        <v>239360.8152700931</v>
+        <v>279528.9247802774</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.651161173039173e-06</v>
+        <v>8.237552050819948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.643055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>216516.5550057989</v>
+        <v>252851.0765206397</v>
       </c>
     </row>
     <row r="5">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.1608041845781</v>
+        <v>181.7040563271872</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.8755663150143</v>
+        <v>248.615506083953</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.7000736702862</v>
+        <v>224.887991117427</v>
       </c>
       <c r="AD5" t="n">
-        <v>162160.8041845781</v>
+        <v>181704.0563271872</v>
       </c>
       <c r="AE5" t="n">
-        <v>221875.5663150143</v>
+        <v>248615.506083953</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.895279885360622e-06</v>
+        <v>8.669904430045948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.411111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>200700.0736702862</v>
+        <v>224887.991117427</v>
       </c>
     </row>
     <row r="6">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.6392761749323</v>
+        <v>174.1825283175413</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.5842798658253</v>
+        <v>238.324219634764</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3909731558933</v>
+        <v>215.5788906030342</v>
       </c>
       <c r="AD6" t="n">
-        <v>154639.2761749323</v>
+        <v>174182.5283175413</v>
       </c>
       <c r="AE6" t="n">
-        <v>211584.2798658253</v>
+        <v>238324.219634764</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.034443100346417e-06</v>
+        <v>8.916372824572871e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.288888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>191390.9731558933</v>
+        <v>215578.8906030342</v>
       </c>
     </row>
     <row r="7">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.8840656512441</v>
+        <v>168.4273177938531</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.7097469253503</v>
+        <v>230.449686694289</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.2679745872783</v>
+        <v>208.4558920344192</v>
       </c>
       <c r="AD7" t="n">
-        <v>148884.0656512441</v>
+        <v>168427.3177938531</v>
       </c>
       <c r="AE7" t="n">
-        <v>203709.7469253503</v>
+        <v>230449.686694289</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.131468626772266e-06</v>
+        <v>9.088212241539127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.208333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>184267.9745872783</v>
+        <v>208455.8920344192</v>
       </c>
     </row>
     <row r="8">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.6543154411322</v>
+        <v>163.1975675837412</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.5541719675829</v>
+        <v>223.2941117365216</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.7953176605654</v>
+        <v>201.9832351077063</v>
       </c>
       <c r="AD8" t="n">
-        <v>143654.3154411322</v>
+        <v>163197.5675837412</v>
       </c>
       <c r="AE8" t="n">
-        <v>196554.1719675829</v>
+        <v>223294.1117365216</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.207658543356668e-06</v>
+        <v>9.223150245246606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.147222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>177795.3176605654</v>
+        <v>201983.2351077063</v>
       </c>
     </row>
     <row r="9">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.4572077064375</v>
+        <v>160.0004598490465</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.1797481185371</v>
+        <v>218.9196878874758</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.8383826841287</v>
+        <v>198.0263001312696</v>
       </c>
       <c r="AD9" t="n">
-        <v>140457.2077064375</v>
+        <v>160000.4598490465</v>
       </c>
       <c r="AE9" t="n">
-        <v>192179.7481185371</v>
+        <v>218919.6878874758</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.246686439402963e-06</v>
+        <v>9.292271549186557e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.116666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>173838.3826841287</v>
+        <v>198026.3001312696</v>
       </c>
     </row>
     <row r="10">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.339925506176</v>
+        <v>159.8831776487851</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.019277438014</v>
+        <v>218.7592172069527</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.6932271001327</v>
+        <v>197.8811445472735</v>
       </c>
       <c r="AD10" t="n">
-        <v>140339.925506176</v>
+        <v>159883.1776487851</v>
       </c>
       <c r="AE10" t="n">
-        <v>192019.277438014</v>
+        <v>218759.2172069527</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.257570713200734e-06</v>
+        <v>9.311548406859056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.106944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>173693.2271001327</v>
+        <v>197881.1445472736</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.4195284160037</v>
+        <v>513.3430438452857</v>
       </c>
       <c r="AB2" t="n">
-        <v>647.7534845743254</v>
+        <v>702.3785996858634</v>
       </c>
       <c r="AC2" t="n">
-        <v>585.9328011342765</v>
+        <v>635.3445719263998</v>
       </c>
       <c r="AD2" t="n">
-        <v>473419.5284160037</v>
+        <v>513343.0438452857</v>
       </c>
       <c r="AE2" t="n">
-        <v>647753.4845743254</v>
+        <v>702378.5996858634</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.560679556237152e-06</v>
+        <v>4.465601549576127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.262499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>585932.8011342764</v>
+        <v>635344.5719263998</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.3038558985666</v>
+        <v>265.1398387794542</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.9531165137455</v>
+        <v>362.7760245621944</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.2263629378062</v>
+        <v>328.153189937326</v>
       </c>
       <c r="AD3" t="n">
-        <v>235303.8558985666</v>
+        <v>265139.8387794542</v>
       </c>
       <c r="AE3" t="n">
-        <v>321953.1165137455</v>
+        <v>362776.0245621944</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950101114595245e-06</v>
+        <v>6.888631424167646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.356944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>291226.3629378062</v>
+        <v>328153.189937326</v>
       </c>
     </row>
     <row r="4">
@@ -13463,28 +13463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.069729354064</v>
+        <v>221.9909635809689</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.7982772205379</v>
+        <v>303.7378299214596</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.7171784823851</v>
+        <v>274.749517732567</v>
       </c>
       <c r="AD4" t="n">
-        <v>192069.729354064</v>
+        <v>221990.9635809689</v>
       </c>
       <c r="AE4" t="n">
-        <v>262798.2772205379</v>
+        <v>303737.8299214596</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.433961078339248e-06</v>
+        <v>7.732440950670132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.772222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>237717.1784823851</v>
+        <v>274749.517732567</v>
       </c>
     </row>
     <row r="5">
@@ -13569,28 +13569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.1861896009849</v>
+        <v>197.2759138432075</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.433961514953</v>
+        <v>269.9216085192302</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.2964044862382</v>
+        <v>244.1606690395907</v>
       </c>
       <c r="AD5" t="n">
-        <v>177186.1896009849</v>
+        <v>197275.9138432075</v>
       </c>
       <c r="AE5" t="n">
-        <v>242433.961514953</v>
+        <v>269921.6085192302</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.690973596864478e-06</v>
+        <v>8.180648340849506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.51111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>219296.4044862382</v>
+        <v>244160.6690395907</v>
       </c>
     </row>
     <row r="6">
@@ -13675,28 +13675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.143309829975</v>
+        <v>189.0624418716054</v>
       </c>
       <c r="AB6" t="n">
-        <v>231.4293385854497</v>
+        <v>258.68357381488</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.3420473240378</v>
+        <v>233.9951765947394</v>
       </c>
       <c r="AD6" t="n">
-        <v>169143.309829975</v>
+        <v>189062.4418716054</v>
       </c>
       <c r="AE6" t="n">
-        <v>231429.3385854497</v>
+        <v>258683.57381488</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.836162055758695e-06</v>
+        <v>8.433844335420308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>209342.0473240378</v>
+        <v>233995.1765947394</v>
       </c>
     </row>
     <row r="7">
@@ -13781,28 +13781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.6003966673089</v>
+        <v>182.5195287089394</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.4770361433379</v>
+        <v>249.7312713727682</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.244140062363</v>
+        <v>225.8972693330645</v>
       </c>
       <c r="AD7" t="n">
-        <v>162600.3966673089</v>
+        <v>182519.5287089394</v>
       </c>
       <c r="AE7" t="n">
-        <v>222477.0361433379</v>
+        <v>249731.2713727682</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.945396184853296e-06</v>
+        <v>8.62433911832405e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.279166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>201244.1400623629</v>
+        <v>225897.2693330645</v>
       </c>
     </row>
     <row r="8">
@@ -13887,28 +13887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.6669096425405</v>
+        <v>177.5860416841709</v>
       </c>
       <c r="AB8" t="n">
-        <v>215.7268215459665</v>
+        <v>242.9810567753968</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.1381564721769</v>
+        <v>219.7912857428784</v>
       </c>
       <c r="AD8" t="n">
-        <v>157666.9096425405</v>
+        <v>177586.0416841709</v>
       </c>
       <c r="AE8" t="n">
-        <v>215726.8215459665</v>
+        <v>242981.0567753968</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.021113565829608e-06</v>
+        <v>8.756383619165275e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.213888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>195138.1564721769</v>
+        <v>219791.2857428784</v>
       </c>
     </row>
     <row r="9">
@@ -13993,28 +13993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.8790906357413</v>
+        <v>172.7982226773718</v>
       </c>
       <c r="AB9" t="n">
-        <v>209.1759163572</v>
+        <v>236.4301515866303</v>
       </c>
       <c r="AC9" t="n">
-        <v>189.212460480371</v>
+        <v>213.8655897510725</v>
       </c>
       <c r="AD9" t="n">
-        <v>152879.0906357413</v>
+        <v>172798.2226773718</v>
       </c>
       <c r="AE9" t="n">
-        <v>209175.9163572</v>
+        <v>236430.1515866303</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.088908806341598e-06</v>
+        <v>8.874612598791728e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.158333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>189212.460480371</v>
+        <v>213865.5897510725</v>
       </c>
     </row>
     <row r="10">
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.8587579504269</v>
+        <v>169.7778899920573</v>
       </c>
       <c r="AB10" t="n">
-        <v>205.0433639294809</v>
+        <v>232.2975991589112</v>
       </c>
       <c r="AC10" t="n">
-        <v>185.4743130562783</v>
+        <v>210.1274423269799</v>
       </c>
       <c r="AD10" t="n">
-        <v>149858.7579504269</v>
+        <v>169777.8899920573</v>
       </c>
       <c r="AE10" t="n">
-        <v>205043.3639294809</v>
+        <v>232297.5991589112</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.122730252170051e-06</v>
+        <v>8.933594247054808e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.130555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>185474.3130562783</v>
+        <v>210127.4423269799</v>
       </c>
     </row>
     <row r="11">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.5507307449196</v>
+        <v>167.46986278655</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.8854192839334</v>
+        <v>229.1396545133637</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.6177582154977</v>
+        <v>207.2708874861992</v>
       </c>
       <c r="AD11" t="n">
-        <v>147550.7307449196</v>
+        <v>167469.86278655</v>
       </c>
       <c r="AE11" t="n">
-        <v>201885.4192839334</v>
+        <v>229139.6545133637</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.146191975852853e-06</v>
+        <v>8.974509444498569e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>182617.7582154977</v>
+        <v>207270.8874861992</v>
       </c>
     </row>
     <row r="12">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>146.6465705699034</v>
+        <v>166.5657026115339</v>
       </c>
       <c r="AB12" t="n">
-        <v>200.6483074437452</v>
+        <v>227.9025426731756</v>
       </c>
       <c r="AC12" t="n">
-        <v>181.4987145930393</v>
+        <v>206.1518438637409</v>
       </c>
       <c r="AD12" t="n">
-        <v>146646.5705699034</v>
+        <v>166565.7026115339</v>
       </c>
       <c r="AE12" t="n">
-        <v>200648.3074437452</v>
+        <v>227902.5426731756</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.161883907926414e-06</v>
+        <v>9.001874803827838e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.098611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>181498.7145930393</v>
+        <v>206151.8438637409</v>
       </c>
     </row>
   </sheetData>
@@ -14608,28 +14608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.4272758422876</v>
+        <v>795.0291511155137</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.189996504084</v>
+        <v>1087.79395876698</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.1108108728597</v>
+        <v>983.9764300706689</v>
       </c>
       <c r="AD2" t="n">
-        <v>743427.2758422876</v>
+        <v>795029.1511155138</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017189.996504084</v>
+        <v>1087793.95876698</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.975772302997634e-06</v>
+        <v>3.358681968062473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>920110.8108728597</v>
+        <v>983976.4300706689</v>
       </c>
     </row>
     <row r="3">
@@ -14714,28 +14714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.4740748414773</v>
+        <v>319.4863508130253</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.7029557760955</v>
+        <v>437.1353199254231</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.0330596459019</v>
+        <v>395.4157385150148</v>
       </c>
       <c r="AD3" t="n">
-        <v>288474.0748414773</v>
+        <v>319486.3508130253</v>
       </c>
       <c r="AE3" t="n">
-        <v>394702.9557760954</v>
+        <v>437135.3199254231</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.497746353014419e-06</v>
+        <v>5.9459369821624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.838888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>357033.0596459018</v>
+        <v>395415.7385150148</v>
       </c>
     </row>
     <row r="4">
@@ -14820,28 +14820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.7204159229698</v>
+        <v>259.3953560792226</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.6278046671221</v>
+        <v>354.9161699030468</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.4549054147921</v>
+        <v>321.0434687754722</v>
       </c>
       <c r="AD4" t="n">
-        <v>238720.4159229698</v>
+        <v>259395.3560792226</v>
       </c>
       <c r="AE4" t="n">
-        <v>326627.8046671221</v>
+        <v>354916.1699030467</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.033745909759461e-06</v>
+        <v>6.85710070451933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.063888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>295454.9054147921</v>
+        <v>321043.4687754722</v>
       </c>
     </row>
     <row r="5">
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.3651026563663</v>
+        <v>239.2920377733423</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.0943258738694</v>
+        <v>327.4099229009776</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.8853235449505</v>
+        <v>296.1623793821184</v>
       </c>
       <c r="AD5" t="n">
-        <v>208365.1026563663</v>
+        <v>239292.0377733423</v>
       </c>
       <c r="AE5" t="n">
-        <v>285094.3258738694</v>
+        <v>327409.9229009775</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.312406859013741e-06</v>
+        <v>7.330805849612987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.736111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>257885.3235449505</v>
+        <v>296162.3793821184</v>
       </c>
     </row>
     <row r="6">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.9881241789932</v>
+        <v>217.7483156812633</v>
       </c>
       <c r="AB6" t="n">
-        <v>269.5278420042685</v>
+        <v>297.93285189267</v>
       </c>
       <c r="AC6" t="n">
-        <v>243.8044830481621</v>
+        <v>269.4985586595053</v>
       </c>
       <c r="AD6" t="n">
-        <v>196988.1241789933</v>
+        <v>217748.3156812633</v>
       </c>
       <c r="AE6" t="n">
-        <v>269527.8420042684</v>
+        <v>297932.85189267</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.487544162740311e-06</v>
+        <v>7.628527658481878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.55138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>243804.4830481621</v>
+        <v>269498.5586595053</v>
       </c>
     </row>
     <row r="7">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.2433273333432</v>
+        <v>209.8329266350211</v>
       </c>
       <c r="AB7" t="n">
-        <v>258.9310692837329</v>
+        <v>287.1026673972876</v>
       </c>
       <c r="AC7" t="n">
-        <v>234.2190514434071</v>
+        <v>259.7019917720993</v>
       </c>
       <c r="AD7" t="n">
-        <v>189243.3273333432</v>
+        <v>209832.9266350211</v>
       </c>
       <c r="AE7" t="n">
-        <v>258931.0692837329</v>
+        <v>287102.6673972876</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.609449137374506e-06</v>
+        <v>7.835758035939737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.430555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>234219.0514434071</v>
+        <v>259701.9917720993</v>
       </c>
     </row>
     <row r="8">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>182.9241594830665</v>
+        <v>203.5137587847444</v>
       </c>
       <c r="AB8" t="n">
-        <v>250.2849050489785</v>
+        <v>278.4565031625332</v>
       </c>
       <c r="AC8" t="n">
-        <v>226.3980649882473</v>
+        <v>251.8810053169396</v>
       </c>
       <c r="AD8" t="n">
-        <v>182924.1594830665</v>
+        <v>203513.7587847444</v>
       </c>
       <c r="AE8" t="n">
-        <v>250284.9050489785</v>
+        <v>278456.5031625332</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.71003177024518e-06</v>
+        <v>8.006741845567211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.336111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>226398.0649882473</v>
+        <v>251881.0053169396</v>
       </c>
     </row>
     <row r="9">
@@ -15350,28 +15350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>179.0722249997316</v>
+        <v>199.6618243014094</v>
       </c>
       <c r="AB9" t="n">
-        <v>245.0145183535263</v>
+        <v>273.186116467081</v>
       </c>
       <c r="AC9" t="n">
-        <v>221.6306766019731</v>
+        <v>247.1136169306654</v>
       </c>
       <c r="AD9" t="n">
-        <v>179072.2249997316</v>
+        <v>199661.8243014094</v>
       </c>
       <c r="AE9" t="n">
-        <v>245014.5183535263</v>
+        <v>273186.116467081</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.766646263893147e-06</v>
+        <v>8.102982732565129e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.284722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>221630.6766019731</v>
+        <v>247113.6169306654</v>
       </c>
     </row>
     <row r="10">
@@ -15456,28 +15456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>175.0087446727327</v>
+        <v>195.5983439744105</v>
       </c>
       <c r="AB10" t="n">
-        <v>239.4546853020293</v>
+        <v>267.6262834155839</v>
       </c>
       <c r="AC10" t="n">
-        <v>216.6014662136345</v>
+        <v>242.0844065423268</v>
       </c>
       <c r="AD10" t="n">
-        <v>175008.7446727327</v>
+        <v>195598.3439744105</v>
       </c>
       <c r="AE10" t="n">
-        <v>239454.6853020293</v>
+        <v>267626.283415584</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.82370190943967e-06</v>
+        <v>8.199973548552644e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>216601.4662136345</v>
+        <v>242084.4065423268</v>
       </c>
     </row>
     <row r="11">
@@ -15562,28 +15562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>171.7326968377254</v>
+        <v>192.3222961394033</v>
       </c>
       <c r="AB11" t="n">
-        <v>234.9722521251445</v>
+        <v>263.1438502386991</v>
       </c>
       <c r="AC11" t="n">
-        <v>212.5468301680157</v>
+        <v>238.0297704967079</v>
       </c>
       <c r="AD11" t="n">
-        <v>171732.6968377254</v>
+        <v>192322.2961394033</v>
       </c>
       <c r="AE11" t="n">
-        <v>234972.2521251445</v>
+        <v>263143.8502386991</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.866052491701007e-06</v>
+        <v>8.271966731553685e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.197222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>212546.8301680157</v>
+        <v>238029.7704967079</v>
       </c>
     </row>
     <row r="12">
@@ -15668,28 +15668,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>168.8642055793366</v>
+        <v>189.4538048810145</v>
       </c>
       <c r="AB12" t="n">
-        <v>231.047455836516</v>
+        <v>259.2190539500706</v>
       </c>
       <c r="AC12" t="n">
-        <v>208.9966109286864</v>
+        <v>234.4795512573787</v>
       </c>
       <c r="AD12" t="n">
-        <v>168864.2055793366</v>
+        <v>189453.8048810145</v>
       </c>
       <c r="AE12" t="n">
-        <v>231047.455836516</v>
+        <v>259219.0539500706</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.888698289160194e-06</v>
+        <v>8.310463086352854e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.177777777777777</v>
       </c>
       <c r="AH12" t="n">
-        <v>208996.6109286864</v>
+        <v>234479.5512573787</v>
       </c>
     </row>
     <row r="13">
@@ -15774,28 +15774,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>165.5777502538916</v>
+        <v>186.1673495555695</v>
       </c>
       <c r="AB13" t="n">
-        <v>226.5507826720682</v>
+        <v>254.7223807856228</v>
       </c>
       <c r="AC13" t="n">
-        <v>204.9290939399316</v>
+        <v>230.412034268624</v>
       </c>
       <c r="AD13" t="n">
-        <v>165577.7502538916</v>
+        <v>186167.3495555695</v>
       </c>
       <c r="AE13" t="n">
-        <v>226550.7826720682</v>
+        <v>254722.3807856228</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.930460668890123e-06</v>
+        <v>8.381456364034436e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.143055555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>204929.0939399317</v>
+        <v>230412.034268624</v>
       </c>
     </row>
     <row r="14">
@@ -15880,28 +15880,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>163.411759456099</v>
+        <v>184.0013587577769</v>
       </c>
       <c r="AB14" t="n">
-        <v>223.5871785057599</v>
+        <v>251.7587766193145</v>
       </c>
       <c r="AC14" t="n">
-        <v>202.2483319958104</v>
+        <v>227.7312723245026</v>
       </c>
       <c r="AD14" t="n">
-        <v>163411.759456099</v>
+        <v>184001.3587577769</v>
       </c>
       <c r="AE14" t="n">
-        <v>223587.1785057599</v>
+        <v>251758.7766193145</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.946048035972421e-06</v>
+        <v>8.407953855000098e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.129166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>202248.3319958104</v>
+        <v>227731.2723245026</v>
       </c>
     </row>
     <row r="15">
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>161.0044641427293</v>
+        <v>181.5940634444072</v>
       </c>
       <c r="AB15" t="n">
-        <v>220.2934108556352</v>
+        <v>248.4650089691899</v>
       </c>
       <c r="AC15" t="n">
-        <v>199.2689169073806</v>
+        <v>224.7518572360729</v>
       </c>
       <c r="AD15" t="n">
-        <v>161004.4641427293</v>
+        <v>181594.0634444072</v>
       </c>
       <c r="AE15" t="n">
-        <v>220293.4108556352</v>
+        <v>248465.0089691899</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.975605213175645e-06</v>
+        <v>8.458199097302908e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.104166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>199268.9169073806</v>
+        <v>224751.8572360729</v>
       </c>
     </row>
     <row r="16">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>160.8673941973981</v>
+        <v>181.4569934990759</v>
       </c>
       <c r="AB16" t="n">
-        <v>220.105865709334</v>
+        <v>248.2774638228886</v>
       </c>
       <c r="AC16" t="n">
-        <v>199.099270806621</v>
+        <v>224.5822111353133</v>
       </c>
       <c r="AD16" t="n">
-        <v>160867.3941973981</v>
+        <v>181456.9934990759</v>
       </c>
       <c r="AE16" t="n">
-        <v>220105.8657093339</v>
+        <v>248277.4638228886</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.969870238494423e-06</v>
+        <v>8.448450020438184e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.109722222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>199099.270806621</v>
+        <v>224582.2111353133</v>
       </c>
     </row>
     <row r="17">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>161.254782234378</v>
+        <v>181.8443815360559</v>
       </c>
       <c r="AB17" t="n">
-        <v>220.6359071118836</v>
+        <v>248.8075052254383</v>
       </c>
       <c r="AC17" t="n">
-        <v>199.5787258016293</v>
+        <v>225.0616661303216</v>
       </c>
       <c r="AD17" t="n">
-        <v>161254.782234378</v>
+        <v>181844.3815360559</v>
       </c>
       <c r="AE17" t="n">
-        <v>220635.9071118836</v>
+        <v>248807.5052254383</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.969576137228719e-06</v>
+        <v>8.447950067778454e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.109722222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>199578.7258016293</v>
+        <v>225061.6661303216</v>
       </c>
     </row>
   </sheetData>
@@ -16495,28 +16495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.9125024786166</v>
+        <v>341.2597470686609</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.4582494477012</v>
+        <v>466.9266412568326</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.9029358162182</v>
+        <v>422.3638179509367</v>
       </c>
       <c r="AD2" t="n">
-        <v>302912.5024786166</v>
+        <v>341259.7470686609</v>
       </c>
       <c r="AE2" t="n">
-        <v>414458.2494477011</v>
+        <v>466926.6412568326</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26333708395143e-06</v>
+        <v>5.884568998264228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>374902.9358162183</v>
+        <v>422363.8179509367</v>
       </c>
     </row>
     <row r="3">
@@ -16601,28 +16601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.9411500739407</v>
+        <v>207.6802483028307</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.8351758574418</v>
+        <v>284.1572779337206</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.468450302006</v>
+        <v>257.0377061450544</v>
       </c>
       <c r="AD3" t="n">
-        <v>178941.1500739407</v>
+        <v>207680.2483028307</v>
       </c>
       <c r="AE3" t="n">
-        <v>244835.1758574418</v>
+        <v>284157.2779337207</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.481142640313162e-06</v>
+        <v>8.080560597821223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>221468.450302006</v>
+        <v>257037.7061450544</v>
       </c>
     </row>
     <row r="4">
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.8494270626941</v>
+        <v>175.9804684389812</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.6083058154351</v>
+        <v>240.7842406284369</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.1263903131204</v>
+        <v>217.8041306457329</v>
       </c>
       <c r="AD4" t="n">
-        <v>156849.4270626941</v>
+        <v>175980.4684389812</v>
       </c>
       <c r="AE4" t="n">
-        <v>214608.3058154351</v>
+        <v>240784.2406284369</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.912107402192186e-06</v>
+        <v>8.857692046965561e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.498611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>194126.3903131204</v>
+        <v>217804.1306457329</v>
       </c>
     </row>
     <row r="5">
@@ -16813,28 +16813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.7846213132282</v>
+        <v>165.9156626895154</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.8371945611311</v>
+        <v>227.0131293741329</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.6695745890467</v>
+        <v>205.3473149216591</v>
       </c>
       <c r="AD5" t="n">
-        <v>146784.6213132282</v>
+        <v>165915.6626895154</v>
       </c>
       <c r="AE5" t="n">
-        <v>200837.1945611311</v>
+        <v>227013.1293741329</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.119715011735238e-06</v>
+        <v>9.232057695224462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.315277777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>181669.5745890467</v>
+        <v>205347.3149216592</v>
       </c>
     </row>
     <row r="6">
@@ -16919,28 +16919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.7753244186283</v>
+        <v>158.9063657949155</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.2467653215895</v>
+        <v>217.4227001345913</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.994442455872</v>
+        <v>196.6721827884845</v>
       </c>
       <c r="AD6" t="n">
-        <v>139775.3244186283</v>
+        <v>158906.3657949155</v>
       </c>
       <c r="AE6" t="n">
-        <v>191246.7653215895</v>
+        <v>217422.7001345913</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.246347699241958e-06</v>
+        <v>9.460406397150962e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.211111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>172994.442455872</v>
+        <v>196672.1827884845</v>
       </c>
     </row>
     <row r="7">
@@ -17025,28 +17025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>134.0216816832004</v>
+        <v>153.1527230594876</v>
       </c>
       <c r="AB7" t="n">
-        <v>183.3743774981782</v>
+        <v>209.55031231118</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.8733842773588</v>
+        <v>189.5511246099713</v>
       </c>
       <c r="AD7" t="n">
-        <v>134021.6816832004</v>
+        <v>153152.7230594876</v>
       </c>
       <c r="AE7" t="n">
-        <v>183374.3774981782</v>
+        <v>209550.31231118</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.33591328098352e-06</v>
+        <v>9.621914335825109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.140277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>165873.3842773588</v>
+        <v>189551.1246099713</v>
       </c>
     </row>
     <row r="8">
@@ -17131,28 +17131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.1708423647391</v>
+        <v>152.3018837410262</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.2102216062784</v>
+        <v>208.3861564192802</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.8203337898785</v>
+        <v>188.498074122491</v>
       </c>
       <c r="AD8" t="n">
-        <v>133170.8423647391</v>
+        <v>152301.8837410262</v>
       </c>
       <c r="AE8" t="n">
-        <v>182210.2216062784</v>
+        <v>208386.1564192802</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.356594498792406e-06</v>
+        <v>9.659207465536724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>164820.3337898785</v>
+        <v>188498.074122491</v>
       </c>
     </row>
     <row r="9">
@@ -17237,28 +17237,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.7703943898394</v>
+        <v>152.9014357661266</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.0305551373888</v>
+        <v>209.2064899503906</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.5623758401254</v>
+        <v>189.2401161727379</v>
       </c>
       <c r="AD9" t="n">
-        <v>133770.3943898394</v>
+        <v>152901.4357661266</v>
       </c>
       <c r="AE9" t="n">
-        <v>183030.5551373888</v>
+        <v>209206.4899503906</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.356276326210731e-06</v>
+        <v>9.658633725079622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>165562.3758401253</v>
+        <v>189240.1161727378</v>
       </c>
     </row>
   </sheetData>
@@ -17534,28 +17534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.366833148382</v>
+        <v>241.1219946468104</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.9379141938178</v>
+        <v>329.9137506272548</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.0757694006817</v>
+        <v>298.4272453043449</v>
       </c>
       <c r="AD2" t="n">
-        <v>213366.833148382</v>
+        <v>241121.9946468104</v>
       </c>
       <c r="AE2" t="n">
-        <v>291937.9141938178</v>
+        <v>329913.7506272548</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.921815449104754e-06</v>
+        <v>7.316854048201821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.869444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>264075.7694006817</v>
+        <v>298427.2453043449</v>
       </c>
     </row>
     <row r="3">
@@ -17640,28 +17640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.1820302685084</v>
+        <v>172.8518509123651</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.6444587924194</v>
+        <v>236.5035281036589</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.6861104445762</v>
+        <v>213.9319633163005</v>
       </c>
       <c r="AD3" t="n">
-        <v>145182.0302685084</v>
+        <v>172851.8509123651</v>
       </c>
       <c r="AE3" t="n">
-        <v>198644.4587924194</v>
+        <v>236503.5281036589</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.9809011642754e-06</v>
+        <v>9.292769463652586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.620833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>179686.1104445762</v>
+        <v>213931.9633163005</v>
       </c>
     </row>
     <row r="4">
@@ -17746,28 +17746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.7918514325802</v>
+        <v>148.2100410855118</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.5869371423418</v>
+        <v>202.7875167786506</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.638289106358</v>
+        <v>183.4337607914212</v>
       </c>
       <c r="AD4" t="n">
-        <v>129791.8514325802</v>
+        <v>148210.0410855118</v>
       </c>
       <c r="AE4" t="n">
-        <v>177586.9371423418</v>
+        <v>202787.5167786506</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.348788863802677e-06</v>
+        <v>9.979130318338974e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.302777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>160638.289106358</v>
+        <v>183433.7607914212</v>
       </c>
     </row>
     <row r="5">
@@ -17852,28 +17852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.1184549470394</v>
+        <v>140.5366445999711</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.0878575444693</v>
+        <v>192.2884371807781</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.1412269297523</v>
+        <v>173.9366986148156</v>
       </c>
       <c r="AD5" t="n">
-        <v>122118.4549470394</v>
+        <v>140536.6445999711</v>
       </c>
       <c r="AE5" t="n">
-        <v>167087.8575444693</v>
+        <v>192288.4371807781</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.513841183050051e-06</v>
+        <v>1.028706518827935e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.173611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>151141.2269297524</v>
+        <v>173936.6986148155</v>
       </c>
     </row>
     <row r="6">
@@ -17958,28 +17958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.9992004652142</v>
+        <v>140.4173901181458</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.9246883012997</v>
+        <v>192.1252679376085</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.9936303301413</v>
+        <v>173.7891020152045</v>
       </c>
       <c r="AD6" t="n">
-        <v>121999.2004652142</v>
+        <v>140417.3901181458</v>
       </c>
       <c r="AE6" t="n">
-        <v>166924.6883012996</v>
+        <v>192125.2679376085</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.526104106367626e-06</v>
+        <v>1.030994388343557e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.165277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>150993.6303301413</v>
+        <v>173789.1020152045</v>
       </c>
     </row>
   </sheetData>
@@ -33268,28 +33268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.5417156187941</v>
+        <v>195.2715913576796</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.6062108452489</v>
+        <v>267.1792060700649</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.5974777400946</v>
+        <v>241.6799976311869</v>
       </c>
       <c r="AD2" t="n">
-        <v>168541.7156187941</v>
+        <v>195271.5913576796</v>
       </c>
       <c r="AE2" t="n">
-        <v>230606.2108452489</v>
+        <v>267179.2060700649</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.473156747910265e-06</v>
+        <v>8.602046307021712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.322222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>208597.4777400946</v>
+        <v>241679.9976311869</v>
       </c>
     </row>
     <row r="3">
@@ -33374,28 +33374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.5718607638063</v>
+        <v>139.4202547107708</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.3399832689367</v>
+        <v>190.7609432827293</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.4647287254282</v>
+        <v>172.5549865905449</v>
       </c>
       <c r="AD3" t="n">
-        <v>121571.8607638063</v>
+        <v>139420.2547107709</v>
       </c>
       <c r="AE3" t="n">
-        <v>166339.9832689367</v>
+        <v>190760.9432827293</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.397478859688152e-06</v>
+        <v>1.037955200516922e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.411111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>150464.7287254282</v>
+        <v>172554.9865905449</v>
       </c>
     </row>
     <row r="4">
@@ -33480,28 +33480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.2838942763825</v>
+        <v>131.1322882233471</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.0000218815733</v>
+        <v>179.4209818953659</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.2070373371354</v>
+        <v>162.2972952022521</v>
       </c>
       <c r="AD4" t="n">
-        <v>113283.8942763825</v>
+        <v>131132.2882233471</v>
       </c>
       <c r="AE4" t="n">
-        <v>155000.0218815733</v>
+        <v>179420.9818953659</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.621530973948852e-06</v>
+        <v>1.081041252955327e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.234722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>140207.0373371354</v>
+        <v>162297.295202252</v>
       </c>
     </row>
     <row r="5">
@@ -33586,28 +33586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.8882140710978</v>
+        <v>131.7366080180624</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.82687888541</v>
+        <v>180.2478388992026</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.9549802690273</v>
+        <v>163.045238134144</v>
       </c>
       <c r="AD5" t="n">
-        <v>113888.2140710978</v>
+        <v>131736.6080180624</v>
       </c>
       <c r="AE5" t="n">
-        <v>155826.87888541</v>
+        <v>180247.8388992026</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.622730947016812e-06</v>
+        <v>1.081272012226229e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.234722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>140954.9802690273</v>
+        <v>163045.238134144</v>
       </c>
     </row>
   </sheetData>
@@ -33883,28 +33883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.2922902707047</v>
+        <v>115.1817646254814</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.4878478981244</v>
+        <v>157.5967718213395</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.6525164496434</v>
+        <v>142.5559571072126</v>
       </c>
       <c r="AD2" t="n">
-        <v>98292.2902707047</v>
+        <v>115181.7646254814</v>
       </c>
       <c r="AE2" t="n">
-        <v>134487.8478981245</v>
+        <v>157596.7718213395</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.584127525285494e-06</v>
+        <v>1.151781764405687e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.576388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>121652.5164496434</v>
+        <v>142555.9571072126</v>
       </c>
     </row>
     <row r="3">
@@ -33989,28 +33989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.26888225454256</v>
+        <v>115.1583566093192</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.4558200177226</v>
+        <v>157.5647439409377</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6235452651957</v>
+        <v>142.5269859227649</v>
       </c>
       <c r="AD3" t="n">
-        <v>98268.88225454256</v>
+        <v>115158.3566093192</v>
       </c>
       <c r="AE3" t="n">
-        <v>134455.8200177226</v>
+        <v>157564.7439409377</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.62184568484673e-06</v>
+        <v>1.159561509437093e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.545833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>121623.5452651957</v>
+        <v>142526.9859227649</v>
       </c>
     </row>
   </sheetData>
@@ -34286,28 +34286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.4345661736746</v>
+        <v>457.0754700544242</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.1523893521522</v>
+        <v>625.3908228750464</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.6424069297951</v>
+        <v>565.704400481384</v>
       </c>
       <c r="AD2" t="n">
-        <v>417434.5661736746</v>
+        <v>457075.4700544242</v>
       </c>
       <c r="AE2" t="n">
-        <v>571152.3893521522</v>
+        <v>625390.8228750464</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.729956836245447e-06</v>
+        <v>4.796426470558228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.827777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>516642.4069297952</v>
+        <v>565704.400481384</v>
       </c>
     </row>
     <row r="3">
@@ -34392,28 +34392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.0975169839663</v>
+        <v>243.9180584328919</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.6201092220164</v>
+        <v>333.739448452998</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.3567163419839</v>
+        <v>301.8878238990009</v>
       </c>
       <c r="AD3" t="n">
-        <v>224097.5169839663</v>
+        <v>243918.0584328918</v>
       </c>
       <c r="AE3" t="n">
-        <v>306620.1092220164</v>
+        <v>333739.448452998</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.062776479778198e-06</v>
+        <v>7.138138007474889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.259722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>277356.7163419839</v>
+        <v>301887.8238990009</v>
       </c>
     </row>
     <row r="4">
@@ -34498,28 +34498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.1496100822538</v>
+        <v>212.7949471382439</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.5933765049649</v>
+        <v>291.155434524917</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.6770963614168</v>
+        <v>263.3679684931636</v>
       </c>
       <c r="AD4" t="n">
-        <v>183149.6100822538</v>
+        <v>212794.9471382439</v>
       </c>
       <c r="AE4" t="n">
-        <v>250593.3765049649</v>
+        <v>291155.434524917</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.54485035915803e-06</v>
+        <v>7.985122796802976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.702777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>226677.0963614168</v>
+        <v>263367.9684931636</v>
       </c>
     </row>
     <row r="5">
@@ -34604,28 +34604,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.6546607025962</v>
+        <v>189.3898612969501</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.1289914085781</v>
+        <v>259.131563517362</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.974926263696</v>
+        <v>234.4004107887742</v>
       </c>
       <c r="AD5" t="n">
-        <v>169654.6607025962</v>
+        <v>189389.8612969501</v>
       </c>
       <c r="AE5" t="n">
-        <v>232128.9914085781</v>
+        <v>259131.563517362</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.789349367882752e-06</v>
+        <v>8.414697910190251e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.4625</v>
       </c>
       <c r="AH5" t="n">
-        <v>209974.926263696</v>
+        <v>234400.4107887742</v>
       </c>
     </row>
     <row r="6">
@@ -34710,28 +34710,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.3773150778554</v>
+        <v>181.1125156722094</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.8035619540969</v>
+        <v>247.8061340628808</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.7303799010068</v>
+        <v>224.155864426085</v>
       </c>
       <c r="AD6" t="n">
-        <v>161377.3150778554</v>
+        <v>181112.5156722094</v>
       </c>
       <c r="AE6" t="n">
-        <v>220803.5619540969</v>
+        <v>247806.1340628808</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.942142014618843e-06</v>
+        <v>8.683148563175501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.323611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>199730.3799010068</v>
+        <v>224155.864426085</v>
       </c>
     </row>
     <row r="7">
@@ -34816,28 +34816,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.7355406410907</v>
+        <v>175.4707412354446</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.0842372721974</v>
+        <v>240.0868093809813</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.7477767326051</v>
+        <v>217.1732612576833</v>
       </c>
       <c r="AD7" t="n">
-        <v>155735.5406410907</v>
+        <v>175470.7412354446</v>
       </c>
       <c r="AE7" t="n">
-        <v>213084.2372721974</v>
+        <v>240086.8093809813</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.035540943691157e-06</v>
+        <v>8.847246797175549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.244444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>192747.7767326051</v>
+        <v>217173.2612576833</v>
       </c>
     </row>
     <row r="8">
@@ -34922,28 +34922,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.7176618576775</v>
+        <v>170.4528624520315</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.2185541475468</v>
+        <v>233.2211262563307</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.5373447693222</v>
+        <v>210.9628292944004</v>
       </c>
       <c r="AD8" t="n">
-        <v>150717.6618576775</v>
+        <v>170452.8624520315</v>
       </c>
       <c r="AE8" t="n">
-        <v>206218.5541475468</v>
+        <v>233221.1262563307</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.113706769010325e-06</v>
+        <v>8.984581068793382e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>186537.3447693222</v>
+        <v>210962.8292944004</v>
       </c>
     </row>
     <row r="9">
@@ -35028,28 +35028,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.7305294177904</v>
+        <v>166.4657300121443</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.7631836434271</v>
+        <v>227.765755752211</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.6026271694534</v>
+        <v>206.0281116945315</v>
       </c>
       <c r="AD9" t="n">
-        <v>146730.5294177904</v>
+        <v>166465.7300121443</v>
       </c>
       <c r="AE9" t="n">
-        <v>200763.1836434271</v>
+        <v>227765.755752211</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.163098953906886e-06</v>
+        <v>9.071361189244808e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.138888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>181602.6271694534</v>
+        <v>206028.1116945315</v>
       </c>
     </row>
     <row r="10">
@@ -35134,28 +35134,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.7637340935459</v>
+        <v>163.4989346878998</v>
       </c>
       <c r="AB10" t="n">
-        <v>196.7038833950255</v>
+        <v>223.7064555038095</v>
       </c>
       <c r="AC10" t="n">
-        <v>177.9307408394943</v>
+        <v>202.3562253645724</v>
       </c>
       <c r="AD10" t="n">
-        <v>143763.7340935459</v>
+        <v>163498.9346878998</v>
       </c>
       <c r="AE10" t="n">
-        <v>196703.8833950255</v>
+        <v>223706.4555038094</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.199873820543267e-06</v>
+        <v>9.135973179238234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.109722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>177930.7408394943</v>
+        <v>202356.2253645724</v>
       </c>
     </row>
     <row r="11">
@@ -35240,28 +35240,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>143.9627357519358</v>
+        <v>163.6979363462898</v>
       </c>
       <c r="AB11" t="n">
-        <v>196.9761662433681</v>
+        <v>223.978738352152</v>
       </c>
       <c r="AC11" t="n">
-        <v>178.1770373949425</v>
+        <v>202.6025219200206</v>
       </c>
       <c r="AD11" t="n">
-        <v>143962.7357519358</v>
+        <v>163697.9363462898</v>
       </c>
       <c r="AE11" t="n">
-        <v>196976.1662433681</v>
+        <v>223978.738352152</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.200950908687428e-06</v>
+        <v>9.137865580618797e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.108333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>178177.0373949425</v>
+        <v>202602.5219200206</v>
       </c>
     </row>
   </sheetData>
@@ -35537,28 +35537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.4479425495491</v>
+        <v>707.7374764116269</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.1810354355938</v>
+        <v>968.3576384002268</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.4598980186207</v>
+        <v>875.9389444897901</v>
       </c>
       <c r="AD2" t="n">
-        <v>656447.9425495492</v>
+        <v>707737.4764116269</v>
       </c>
       <c r="AE2" t="n">
-        <v>898181.0354355938</v>
+        <v>968357.6384002268</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.114235728125757e-06</v>
+        <v>3.615107479600804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.740277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>812459.8980186207</v>
+        <v>875938.94448979</v>
       </c>
     </row>
     <row r="3">
@@ -35643,28 +35643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.0848357612229</v>
+        <v>305.8585560784696</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.3832081749521</v>
+        <v>418.489169953732</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.4617230438845</v>
+        <v>378.549150926586</v>
       </c>
       <c r="AD3" t="n">
-        <v>275084.8357612229</v>
+        <v>305858.5560784696</v>
       </c>
       <c r="AE3" t="n">
-        <v>376383.2081749521</v>
+        <v>418489.169953732</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.599642385280105e-06</v>
+        <v>6.154987326058542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.720833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>340461.7230438845</v>
+        <v>378549.150926586</v>
       </c>
     </row>
     <row r="4">
@@ -35749,28 +35749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.2959872777799</v>
+        <v>249.9843667404545</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.0504444494749</v>
+        <v>342.0396391060353</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.4140511547493</v>
+        <v>309.3958560055059</v>
       </c>
       <c r="AD4" t="n">
-        <v>219295.9872777799</v>
+        <v>249984.3667404545</v>
       </c>
       <c r="AE4" t="n">
-        <v>300050.4444494749</v>
+        <v>342039.6391060353</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.125421184069216e-06</v>
+        <v>7.054010477939071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.991666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>271414.0511547493</v>
+        <v>309395.8560055059</v>
       </c>
     </row>
     <row r="5">
@@ -35855,28 +35855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.5038212536684</v>
+        <v>231.192200716343</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.338173843445</v>
+        <v>316.3273685000054</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.1557235679523</v>
+        <v>286.1375284187088</v>
       </c>
       <c r="AD5" t="n">
-        <v>200503.8212536684</v>
+        <v>231192.200716343</v>
       </c>
       <c r="AE5" t="n">
-        <v>274338.173843445</v>
+        <v>316327.3685000055</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.400617306616478e-06</v>
+        <v>7.524565178979752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.679166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>248155.7235679523</v>
+        <v>286137.5284187088</v>
       </c>
     </row>
     <row r="6">
@@ -35961,28 +35961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.2300280004008</v>
+        <v>210.8311823998033</v>
       </c>
       <c r="AB6" t="n">
-        <v>260.2811166665616</v>
+        <v>288.468524974598</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.4402521988225</v>
+        <v>260.9374938192249</v>
       </c>
       <c r="AD6" t="n">
-        <v>190230.0280004008</v>
+        <v>210831.1823998033</v>
       </c>
       <c r="AE6" t="n">
-        <v>260281.1166665616</v>
+        <v>288468.524974598</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.566090837199852e-06</v>
+        <v>7.80750647551068e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.509722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>235440.2521988225</v>
+        <v>260937.4938192249</v>
       </c>
     </row>
     <row r="7">
@@ -36067,28 +36067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.657925270144</v>
+        <v>203.0884874689543</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.9206316534336</v>
+        <v>277.8746281866231</v>
       </c>
       <c r="AC7" t="n">
-        <v>226.0685573343121</v>
+        <v>251.3546636720635</v>
       </c>
       <c r="AD7" t="n">
-        <v>182657.925270144</v>
+        <v>203088.4874689543</v>
       </c>
       <c r="AE7" t="n">
-        <v>249920.6316534336</v>
+        <v>277874.6281866231</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.689602890045687e-06</v>
+        <v>8.018698321398012e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.391666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>226068.5573343121</v>
+        <v>251354.6636720634</v>
       </c>
     </row>
     <row r="8">
@@ -36173,28 +36173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.1562203940061</v>
+        <v>197.5867825928163</v>
       </c>
       <c r="AB8" t="n">
-        <v>242.3929563238165</v>
+        <v>270.3469528570061</v>
       </c>
       <c r="AC8" t="n">
-        <v>219.2593127729926</v>
+        <v>244.545419110744</v>
       </c>
       <c r="AD8" t="n">
-        <v>177156.2203940061</v>
+        <v>197586.7825928163</v>
       </c>
       <c r="AE8" t="n">
-        <v>242392.9563238165</v>
+        <v>270346.9528570061</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.77574995211463e-06</v>
+        <v>8.166000197100941e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>219259.3127729926</v>
+        <v>244545.419110744</v>
       </c>
     </row>
     <row r="9">
@@ -36279,28 +36279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>172.9977509778059</v>
+        <v>193.4283131766162</v>
       </c>
       <c r="AB9" t="n">
-        <v>236.7031550098515</v>
+        <v>264.657151543041</v>
       </c>
       <c r="AC9" t="n">
-        <v>214.1125381107443</v>
+        <v>239.3986444484957</v>
       </c>
       <c r="AD9" t="n">
-        <v>172997.7509778059</v>
+        <v>193428.3131766162</v>
       </c>
       <c r="AE9" t="n">
-        <v>236703.1550098515</v>
+        <v>264657.1515430411</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.838024936742783e-06</v>
+        <v>8.272483480741614e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.256944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>214112.5381107443</v>
+        <v>239398.6444484957</v>
       </c>
     </row>
     <row r="10">
@@ -36385,28 +36385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>169.219555215736</v>
+        <v>189.6501174145463</v>
       </c>
       <c r="AB10" t="n">
-        <v>231.5336608859569</v>
+        <v>259.4876574191464</v>
       </c>
       <c r="AC10" t="n">
-        <v>209.436413250602</v>
+        <v>234.7225195883534</v>
       </c>
       <c r="AD10" t="n">
-        <v>169219.555215736</v>
+        <v>189650.1174145463</v>
       </c>
       <c r="AE10" t="n">
-        <v>231533.6608859569</v>
+        <v>259487.6574191464</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.888586293309925e-06</v>
+        <v>8.35893776579273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH10" t="n">
-        <v>209436.413250602</v>
+        <v>234722.5195883533</v>
       </c>
     </row>
     <row r="11">
@@ -36491,28 +36491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>165.7297960438426</v>
+        <v>186.1603582426529</v>
       </c>
       <c r="AB11" t="n">
-        <v>226.7588184296659</v>
+        <v>254.7128149628554</v>
       </c>
       <c r="AC11" t="n">
-        <v>205.1172750568044</v>
+        <v>230.4033813945557</v>
       </c>
       <c r="AD11" t="n">
-        <v>165729.7960438427</v>
+        <v>186160.3582426529</v>
       </c>
       <c r="AE11" t="n">
-        <v>226758.8184296659</v>
+        <v>254712.8149628554</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.932178782549632e-06</v>
+        <v>8.433476064341201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.175</v>
       </c>
       <c r="AH11" t="n">
-        <v>205117.2750568044</v>
+        <v>230403.3813945557</v>
       </c>
     </row>
     <row r="12">
@@ -36597,28 +36597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>162.8365903227643</v>
+        <v>183.2671525215745</v>
       </c>
       <c r="AB12" t="n">
-        <v>222.8002067228603</v>
+        <v>250.7542032560499</v>
       </c>
       <c r="AC12" t="n">
-        <v>201.5364676953487</v>
+        <v>226.8225740331</v>
       </c>
       <c r="AD12" t="n">
-        <v>162836.5903227643</v>
+        <v>183267.1525215745</v>
       </c>
       <c r="AE12" t="n">
-        <v>222800.2067228603</v>
+        <v>250754.2032560499</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.95916460922183e-06</v>
+        <v>8.479618820585491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.152777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>201536.4676953487</v>
+        <v>226822.5740331</v>
       </c>
     </row>
     <row r="13">
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>159.4390575400851</v>
+        <v>179.8696197388954</v>
       </c>
       <c r="AB13" t="n">
-        <v>218.1515524810332</v>
+        <v>246.1055490142228</v>
       </c>
       <c r="AC13" t="n">
-        <v>197.3314744899329</v>
+        <v>222.6175808276843</v>
       </c>
       <c r="AD13" t="n">
-        <v>159439.0575400851</v>
+        <v>179869.6197388954</v>
       </c>
       <c r="AE13" t="n">
-        <v>218151.5524810332</v>
+        <v>246105.5490142227</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.000236444321826e-06</v>
+        <v>8.549847081462792e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.118055555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>197331.4744899329</v>
+        <v>222617.5808276843</v>
       </c>
     </row>
     <row r="14">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>157.5505235095542</v>
+        <v>177.9810857083645</v>
       </c>
       <c r="AB14" t="n">
-        <v>215.567576904221</v>
+        <v>243.5215734374105</v>
       </c>
       <c r="AC14" t="n">
-        <v>194.9941099155382</v>
+        <v>220.2802162532896</v>
       </c>
       <c r="AD14" t="n">
-        <v>157550.5235095542</v>
+        <v>177981.0857083645</v>
       </c>
       <c r="AE14" t="n">
-        <v>215567.576904221</v>
+        <v>243521.5734374105</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.013136262566229e-06</v>
+        <v>8.571904333074073e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.108333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>194994.1099155383</v>
+        <v>220280.2162532896</v>
       </c>
     </row>
     <row r="15">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>156.3243318311567</v>
+        <v>176.7548940299669</v>
       </c>
       <c r="AB15" t="n">
-        <v>213.8898473540793</v>
+        <v>241.8438438872688</v>
       </c>
       <c r="AC15" t="n">
-        <v>193.4765005189533</v>
+        <v>218.7626068567047</v>
       </c>
       <c r="AD15" t="n">
-        <v>156324.3318311567</v>
+        <v>176754.8940299669</v>
       </c>
       <c r="AE15" t="n">
-        <v>213889.8473540792</v>
+        <v>241843.8438872688</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.026777449675253e-06</v>
+        <v>8.595229242823935e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>193476.5005189533</v>
+        <v>218762.6068567047</v>
       </c>
     </row>
     <row r="16">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>157.1039431859194</v>
+        <v>177.5345053847296</v>
       </c>
       <c r="AB16" t="n">
-        <v>214.9565460036907</v>
+        <v>242.9105425368802</v>
       </c>
       <c r="AC16" t="n">
-        <v>194.4413949465671</v>
+        <v>219.7275012843185</v>
       </c>
       <c r="AD16" t="n">
-        <v>157103.9431859194</v>
+        <v>177534.5053847297</v>
       </c>
       <c r="AE16" t="n">
-        <v>214956.5460036907</v>
+        <v>242910.5425368802</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.02559125949186e-06</v>
+        <v>8.593200989802208e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>194441.3949465671</v>
+        <v>219727.5012843185</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.64988020444996</v>
+        <v>114.9783247501198</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.0311652861433</v>
+        <v>157.3184164087361</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.1938049501002</v>
+        <v>142.3041675445137</v>
       </c>
       <c r="AD2" t="n">
-        <v>90649.88020444996</v>
+        <v>114978.3247501198</v>
       </c>
       <c r="AE2" t="n">
-        <v>124031.1652861433</v>
+        <v>157318.4164087361</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.397329242009986e-06</v>
+        <v>1.156896252399341e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>112193.8049501002</v>
+        <v>142304.1675445136</v>
       </c>
     </row>
   </sheetData>
@@ -37615,28 +37615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0922924267676</v>
+        <v>276.1417730059883</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.4508195576227</v>
+        <v>377.8293563420204</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.0541097613618</v>
+        <v>341.7698528595695</v>
       </c>
       <c r="AD2" t="n">
-        <v>248092.2924267676</v>
+        <v>276141.7730059883</v>
       </c>
       <c r="AE2" t="n">
-        <v>339450.8195576227</v>
+        <v>377829.3563420204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.677510249760169e-06</v>
+        <v>6.775564532336672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.168055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>307054.1097613618</v>
+        <v>341769.8528595695</v>
       </c>
     </row>
     <row r="3">
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.2198095564105</v>
+        <v>184.2692006270767</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.7468353665743</v>
+        <v>252.1252496812396</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.3471373948172</v>
+        <v>228.0627697117459</v>
       </c>
       <c r="AD3" t="n">
-        <v>156219.8095564105</v>
+        <v>184269.2006270767</v>
       </c>
       <c r="AE3" t="n">
-        <v>213746.8353665743</v>
+        <v>252125.2496812396</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.808687581025209e-06</v>
+        <v>8.859682450431527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.716666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>193347.1373948172</v>
+        <v>228062.7697117459</v>
       </c>
     </row>
     <row r="4">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.3405149238114</v>
+        <v>158.0117515279494</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.6518397883403</v>
+        <v>216.198649426933</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.4562957805326</v>
+        <v>195.5649537623987</v>
       </c>
       <c r="AD4" t="n">
-        <v>139340.5149238114</v>
+        <v>158011.7515279494</v>
       </c>
       <c r="AE4" t="n">
-        <v>190651.8397883403</v>
+        <v>216198.649426933</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.184276993744943e-06</v>
+        <v>9.551680604266978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>172456.2957805326</v>
+        <v>195564.9537623987</v>
       </c>
     </row>
     <row r="5">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.427207136361</v>
+        <v>149.0984437404989</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.4562588461697</v>
+        <v>204.0030684847625</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.4246439668736</v>
+        <v>184.5333019487396</v>
       </c>
       <c r="AD5" t="n">
-        <v>130427.207136361</v>
+        <v>149098.4437404989</v>
       </c>
       <c r="AE5" t="n">
-        <v>178456.2588461697</v>
+        <v>204003.0684847625</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.376807392699972e-06</v>
+        <v>9.906404875298281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.218055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>161424.6439668736</v>
+        <v>184533.3019487397</v>
       </c>
     </row>
     <row r="6">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.210285244458</v>
+        <v>143.881521848596</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.3182361593213</v>
+        <v>196.865045797914</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.9678641469779</v>
+        <v>178.076522128844</v>
       </c>
       <c r="AD6" t="n">
-        <v>125210.285244458</v>
+        <v>143881.521848596</v>
       </c>
       <c r="AE6" t="n">
-        <v>171318.2361593213</v>
+        <v>196865.045797914</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.470214846645922e-06</v>
+        <v>1.007850180746953e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.145833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>154967.8641469779</v>
+        <v>178076.522128844</v>
       </c>
     </row>
     <row r="7">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.9343057210775</v>
+        <v>144.6055423252155</v>
       </c>
       <c r="AB7" t="n">
-        <v>172.3088729169608</v>
+        <v>197.8556825555534</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.863955922836</v>
+        <v>178.9726139047021</v>
       </c>
       <c r="AD7" t="n">
-        <v>125934.3057210775</v>
+        <v>144605.5423252155</v>
       </c>
       <c r="AE7" t="n">
-        <v>172308.8729169607</v>
+        <v>197855.6825555534</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.469561647667279e-06</v>
+        <v>1.007729833241938e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.147222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>155863.955922836</v>
+        <v>178972.6139047021</v>
       </c>
     </row>
   </sheetData>
@@ -38442,28 +38442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.6024026729851</v>
+        <v>374.7437849042432</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.8684542391129</v>
+        <v>512.7409790349693</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.738552641575</v>
+        <v>463.8056996323549</v>
       </c>
       <c r="AD2" t="n">
-        <v>345602.4026729851</v>
+        <v>374743.7849042432</v>
       </c>
       <c r="AE2" t="n">
-        <v>472868.4542391128</v>
+        <v>512740.9790349694</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066785044583895e-06</v>
+        <v>5.478587673449684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.120833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>427738.552641575</v>
+        <v>463805.6996323549</v>
       </c>
     </row>
     <row r="3">
@@ -38548,28 +38548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7124475776708</v>
+        <v>219.1400655680264</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.2553814670032</v>
+        <v>299.83710548741</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.176271376209</v>
+        <v>271.2210729638006</v>
       </c>
       <c r="AD3" t="n">
-        <v>199712.4475776709</v>
+        <v>219140.0655680264</v>
       </c>
       <c r="AE3" t="n">
-        <v>273255.3814670032</v>
+        <v>299837.10548741</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.342017972740358e-06</v>
+        <v>7.756698235294776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.029166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>247176.271376209</v>
+        <v>271221.0729638006</v>
       </c>
     </row>
     <row r="4">
@@ -38654,28 +38654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.0835236625515</v>
+        <v>185.5963929989276</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.2428041629443</v>
+        <v>253.9411728360003</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.5550698709771</v>
+        <v>229.7053837092809</v>
       </c>
       <c r="AD4" t="n">
-        <v>166083.5236625515</v>
+        <v>185596.3929989276</v>
       </c>
       <c r="AE4" t="n">
-        <v>227242.8041629443</v>
+        <v>253941.1728360003</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.774223042337463e-06</v>
+        <v>8.52880105054717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.573611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>205555.0698709771</v>
+        <v>229705.3837092809</v>
       </c>
     </row>
     <row r="5">
@@ -38760,28 +38760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.5029462556782</v>
+        <v>173.8452233914621</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.3977472558504</v>
+        <v>237.8627041540595</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.2222429564142</v>
+        <v>215.161421512067</v>
       </c>
       <c r="AD5" t="n">
-        <v>154502.9462556782</v>
+        <v>173845.2233914621</v>
       </c>
       <c r="AE5" t="n">
-        <v>211397.7472558504</v>
+        <v>237862.7041540596</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.003610891206935e-06</v>
+        <v>8.938585702221684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.36388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>191222.2429564142</v>
+        <v>215161.421512067</v>
       </c>
     </row>
     <row r="6">
@@ -38866,28 +38866,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.8333263138812</v>
+        <v>166.1756034496651</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.9038348917374</v>
+        <v>227.3687917899466</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.7298548600303</v>
+        <v>205.669033415683</v>
       </c>
       <c r="AD6" t="n">
-        <v>146833.3263138812</v>
+        <v>166175.6034496651</v>
       </c>
       <c r="AE6" t="n">
-        <v>200903.8348917374</v>
+        <v>227368.7917899466</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.148570176099089e-06</v>
+        <v>9.197544885802153e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.241666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>181729.8548600303</v>
+        <v>205669.033415683</v>
       </c>
     </row>
     <row r="7">
@@ -38972,28 +38972,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.6862795720422</v>
+        <v>161.0285567078261</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.8614184678805</v>
+        <v>220.3263753660896</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.3595567755705</v>
+        <v>199.2987353312232</v>
       </c>
       <c r="AD7" t="n">
-        <v>141686.2795720422</v>
+        <v>161028.5567078261</v>
       </c>
       <c r="AE7" t="n">
-        <v>193861.4184678805</v>
+        <v>220326.3753660896</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.23032595499705e-06</v>
+        <v>9.343595618407189e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.175</v>
       </c>
       <c r="AH7" t="n">
-        <v>175359.5567755705</v>
+        <v>199298.7353312232</v>
       </c>
     </row>
     <row r="8">
@@ -39078,28 +39078,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.1873236839846</v>
+        <v>156.5296008197685</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.7057485419174</v>
+        <v>214.1707054401265</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.7913753478023</v>
+        <v>193.730553903455</v>
       </c>
       <c r="AD8" t="n">
-        <v>137187.3236839846</v>
+        <v>156529.6008197685</v>
       </c>
       <c r="AE8" t="n">
-        <v>187705.7485419174</v>
+        <v>214170.7054401265</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.29415835159815e-06</v>
+        <v>9.457627536556506e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>169791.3753478023</v>
+        <v>193730.5539034551</v>
       </c>
     </row>
     <row r="9">
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.6142691223647</v>
+        <v>155.9565462581486</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.9216700093264</v>
+        <v>213.3866269075356</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.0821281699005</v>
+        <v>193.0213067255532</v>
       </c>
       <c r="AD9" t="n">
-        <v>136614.2691223647</v>
+        <v>155956.5462581486</v>
       </c>
       <c r="AE9" t="n">
-        <v>186921.6700093265</v>
+        <v>213386.6269075356</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.302805597443126e-06</v>
+        <v>9.473075210197422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.118055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>169082.1281699005</v>
+        <v>193021.3067255532</v>
       </c>
     </row>
   </sheetData>
